--- a/serie_a_odds.xlsx
+++ b/serie_a_odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C383E7-C57A-45AD-91CA-E1FA43B541A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED6AAF-1F25-4367-896F-7BEE9503ABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,6 +3783,9 @@
       <c r="I84" t="s">
         <v>15</v>
       </c>
+      <c r="J84">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -3812,6 +3815,9 @@
       <c r="I85" t="s">
         <v>25</v>
       </c>
+      <c r="J85">
+        <v>-1</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -3841,6 +3847,9 @@
       <c r="I86" t="s">
         <v>32</v>
       </c>
+      <c r="J86">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -3870,6 +3879,9 @@
       <c r="I87" t="s">
         <v>20</v>
       </c>
+      <c r="J87">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -3899,6 +3911,9 @@
       <c r="I88" t="s">
         <v>29</v>
       </c>
+      <c r="J88">
+        <v>-1</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -3928,6 +3943,9 @@
       <c r="I89" t="s">
         <v>16</v>
       </c>
+      <c r="J89">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -3957,6 +3975,9 @@
       <c r="I90" t="s">
         <v>24</v>
       </c>
+      <c r="J90">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -3986,6 +4007,9 @@
       <c r="I91" t="s">
         <v>21</v>
       </c>
+      <c r="J91">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -4015,6 +4039,9 @@
       <c r="I92" t="s">
         <v>23</v>
       </c>
+      <c r="J92">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -4044,6 +4071,9 @@
       <c r="I93" t="s">
         <v>12</v>
       </c>
+      <c r="J93">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -4073,6 +4103,9 @@
       <c r="I94" t="s">
         <v>17</v>
       </c>
+      <c r="J94">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -4102,6 +4135,9 @@
       <c r="I95" t="s">
         <v>14</v>
       </c>
+      <c r="J95">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -4131,8 +4167,11 @@
       <c r="I96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -4160,8 +4199,11 @@
       <c r="I97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>10</v>
       </c>
@@ -4189,8 +4231,11 @@
       <c r="I98" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>10</v>
       </c>
@@ -4218,8 +4263,11 @@
       <c r="I99" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>10</v>
       </c>
@@ -4247,8 +4295,11 @@
       <c r="I100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -4276,8 +4327,11 @@
       <c r="I101" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11</v>
       </c>
@@ -4305,8 +4359,11 @@
       <c r="I102" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>11</v>
       </c>
@@ -4334,8 +4391,11 @@
       <c r="I103" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>11</v>
       </c>
@@ -4363,8 +4423,11 @@
       <c r="I104" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4392,8 +4455,11 @@
       <c r="I105" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>11</v>
       </c>
@@ -4421,8 +4487,11 @@
       <c r="I106" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>11</v>
       </c>
@@ -4450,8 +4519,11 @@
       <c r="I107" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -4479,8 +4551,11 @@
       <c r="I108" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>11</v>
       </c>
@@ -4508,8 +4583,11 @@
       <c r="I109" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -4537,8 +4615,11 @@
       <c r="I110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11</v>
       </c>
@@ -4566,8 +4647,11 @@
       <c r="I111" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>12</v>
       </c>
@@ -4595,8 +4679,11 @@
       <c r="I112" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -4624,8 +4711,11 @@
       <c r="I113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -4653,8 +4743,11 @@
       <c r="I114" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -4682,8 +4775,11 @@
       <c r="I115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>12</v>
       </c>
@@ -4711,8 +4807,11 @@
       <c r="I116" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -4740,8 +4839,11 @@
       <c r="I117" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -4769,8 +4871,11 @@
       <c r="I118" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
@@ -4798,8 +4903,11 @@
       <c r="I119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -4827,8 +4935,11 @@
       <c r="I120" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -4856,8 +4967,11 @@
       <c r="I121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>13</v>
       </c>
@@ -4885,8 +4999,11 @@
       <c r="I122" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13</v>
       </c>
@@ -4914,8 +5031,11 @@
       <c r="I123" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -4943,8 +5063,11 @@
       <c r="I124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -4972,8 +5095,11 @@
       <c r="I125" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>13</v>
       </c>
@@ -5001,8 +5127,11 @@
       <c r="I126" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>13</v>
       </c>
@@ -5030,8 +5159,11 @@
       <c r="I127" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>13</v>
       </c>
@@ -5059,8 +5191,11 @@
       <c r="I128" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>13</v>
       </c>
@@ -5088,8 +5223,11 @@
       <c r="I129" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13</v>
       </c>
@@ -5117,8 +5255,11 @@
       <c r="I130" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13</v>
       </c>
@@ -5146,8 +5287,11 @@
       <c r="I131" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -5175,8 +5319,11 @@
       <c r="I132" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -5204,8 +5351,11 @@
       <c r="I133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -5233,8 +5383,11 @@
       <c r="I134" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -5262,8 +5415,11 @@
       <c r="I135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -5291,8 +5447,11 @@
       <c r="I136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -5320,8 +5479,11 @@
       <c r="I137" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14</v>
       </c>
@@ -5349,8 +5511,11 @@
       <c r="I138" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -5378,8 +5543,11 @@
       <c r="I139" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5407,8 +5575,11 @@
       <c r="I140" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5436,8 +5607,11 @@
       <c r="I141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>15</v>
       </c>
@@ -5465,8 +5639,11 @@
       <c r="I142" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="I143" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -5523,8 +5703,11 @@
       <c r="I144" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15</v>
       </c>
@@ -5552,8 +5735,11 @@
       <c r="I145" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15</v>
       </c>
@@ -5581,8 +5767,11 @@
       <c r="I146" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15</v>
       </c>
@@ -5610,8 +5799,11 @@
       <c r="I147" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15</v>
       </c>
@@ -5639,8 +5831,11 @@
       <c r="I148" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15</v>
       </c>
@@ -5668,8 +5863,11 @@
       <c r="I149" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15</v>
       </c>
@@ -5697,8 +5895,11 @@
       <c r="I150" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15</v>
       </c>
@@ -5726,8 +5927,11 @@
       <c r="I151" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>16</v>
       </c>
@@ -5755,8 +5959,11 @@
       <c r="I152" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>16</v>
       </c>
@@ -5784,8 +5991,11 @@
       <c r="I153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>16</v>
       </c>
@@ -5813,8 +6023,11 @@
       <c r="I154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>16</v>
       </c>
@@ -5842,8 +6055,11 @@
       <c r="I155" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>16</v>
       </c>
@@ -5871,8 +6087,11 @@
       <c r="I156" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16</v>
       </c>
@@ -5900,8 +6119,11 @@
       <c r="I157" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5929,8 +6151,11 @@
       <c r="I158" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>16</v>
       </c>
@@ -5958,8 +6183,11 @@
       <c r="I159" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5987,8 +6215,11 @@
       <c r="I160" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -6016,8 +6247,11 @@
       <c r="I161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>17</v>
       </c>
@@ -6045,8 +6279,11 @@
       <c r="I162" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>17</v>
       </c>
@@ -6074,8 +6311,11 @@
       <c r="I163" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>17</v>
       </c>
@@ -6103,8 +6343,11 @@
       <c r="I164" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -6132,8 +6375,11 @@
       <c r="I165" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>17</v>
       </c>
@@ -6161,8 +6407,11 @@
       <c r="I166" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>17</v>
       </c>
@@ -6190,8 +6439,11 @@
       <c r="I167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>17</v>
       </c>
@@ -6219,8 +6471,11 @@
       <c r="I168" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>17</v>
       </c>
@@ -6248,8 +6503,11 @@
       <c r="I169" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>17</v>
       </c>
@@ -6277,8 +6535,11 @@
       <c r="I170" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>17</v>
       </c>
@@ -6306,8 +6567,11 @@
       <c r="I171" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>18</v>
       </c>
@@ -6336,7 +6600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>18</v>
       </c>
@@ -6365,7 +6629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>18</v>
       </c>
@@ -6394,7 +6658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>18</v>
       </c>
@@ -6423,7 +6687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>18</v>
       </c>

--- a/serie_a_odds.xlsx
+++ b/serie_a_odds.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED6AAF-1F25-4367-896F-7BEE9503ABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D20806-5400-4CBF-A755-492F35C73ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="df (7)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="73">
   <si>
     <t>Wk</t>
   </si>
@@ -233,6 +244,12 @@
   </si>
   <si>
     <t>Spread</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Home Team</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6599,6 +6616,9 @@
       <c r="I172" t="s">
         <v>12</v>
       </c>
+      <c r="J172">
+        <v>-1</v>
+      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
@@ -6628,6 +6648,9 @@
       <c r="I173" t="s">
         <v>11</v>
       </c>
+      <c r="J173">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
@@ -6657,6 +6680,9 @@
       <c r="I174" t="s">
         <v>26</v>
       </c>
+      <c r="J174">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
@@ -6686,6 +6712,9 @@
       <c r="I175" t="s">
         <v>21</v>
       </c>
+      <c r="J175">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
@@ -6715,6 +6744,9 @@
       <c r="I176" t="s">
         <v>20</v>
       </c>
+      <c r="J176">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
@@ -6744,6 +6776,9 @@
       <c r="I177" t="s">
         <v>14</v>
       </c>
+      <c r="J177">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
@@ -6773,6 +6808,9 @@
       <c r="I178" t="s">
         <v>15</v>
       </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
@@ -6802,6 +6840,9 @@
       <c r="I179" t="s">
         <v>13</v>
       </c>
+      <c r="J179">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
@@ -6831,6 +6872,9 @@
       <c r="I180" t="s">
         <v>25</v>
       </c>
+      <c r="J180">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
@@ -6860,6 +6904,9 @@
       <c r="I181" t="s">
         <v>24</v>
       </c>
+      <c r="J181">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
@@ -6915,6 +6962,9 @@
       <c r="I183" t="s">
         <v>18</v>
       </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
@@ -6944,6 +6994,9 @@
       <c r="I184" t="s">
         <v>29</v>
       </c>
+      <c r="J184">
+        <v>-1.75</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
@@ -6973,6 +7026,9 @@
       <c r="I185" t="s">
         <v>16</v>
       </c>
+      <c r="J185">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
@@ -7002,6 +7058,9 @@
       <c r="I186" t="s">
         <v>22</v>
       </c>
+      <c r="J186">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
@@ -7031,6 +7090,9 @@
       <c r="I187" t="s">
         <v>31</v>
       </c>
+      <c r="J187">
+        <v>-1</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -7060,6 +7122,9 @@
       <c r="I188" t="s">
         <v>27</v>
       </c>
+      <c r="J188">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
@@ -7089,6 +7154,9 @@
       <c r="I189" t="s">
         <v>17</v>
       </c>
+      <c r="J189">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
@@ -7118,6 +7186,9 @@
       <c r="I190" t="s">
         <v>30</v>
       </c>
+      <c r="J190">
+        <v>-1.75</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
@@ -7146,6 +7217,9 @@
       </c>
       <c r="I191" t="s">
         <v>32</v>
+      </c>
+      <c r="J191">
+        <v>0.5</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -7199,6 +7273,9 @@
       <c r="I193" t="s">
         <v>29</v>
       </c>
+      <c r="J193">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
@@ -7228,6 +7305,9 @@
       <c r="I194" t="s">
         <v>13</v>
       </c>
+      <c r="J194">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
@@ -7257,6 +7337,9 @@
       <c r="I195" t="s">
         <v>15</v>
       </c>
+      <c r="J195">
+        <v>-1</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
@@ -7286,6 +7369,9 @@
       <c r="I196" t="s">
         <v>12</v>
       </c>
+      <c r="J196">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
@@ -7361,6 +7447,9 @@
       <c r="I199" t="s">
         <v>26</v>
       </c>
+      <c r="J199">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
@@ -7390,6 +7479,9 @@
       <c r="I200" t="s">
         <v>24</v>
       </c>
+      <c r="J200">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
@@ -7442,6 +7534,9 @@
       <c r="I202" t="s">
         <v>32</v>
       </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
@@ -7471,6 +7566,9 @@
       <c r="I203" t="s">
         <v>14</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
@@ -7500,6 +7598,9 @@
       <c r="I204" t="s">
         <v>18</v>
       </c>
+      <c r="J204">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
@@ -7529,6 +7630,9 @@
       <c r="I205" t="s">
         <v>31</v>
       </c>
+      <c r="J205">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
@@ -7558,6 +7662,9 @@
       <c r="I206" t="s">
         <v>21</v>
       </c>
+      <c r="J206">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -7587,6 +7694,9 @@
       <c r="I207" t="s">
         <v>30</v>
       </c>
+      <c r="J207">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
@@ -7616,8 +7726,11 @@
       <c r="I208" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>21</v>
       </c>
@@ -7645,8 +7758,11 @@
       <c r="I209" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>21</v>
       </c>
@@ -7674,8 +7790,11 @@
       <c r="I210" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>21</v>
       </c>
@@ -7703,8 +7822,11 @@
       <c r="I211" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>22</v>
       </c>
@@ -7732,8 +7854,11 @@
       <c r="I212" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>22</v>
       </c>
@@ -7761,8 +7886,11 @@
       <c r="I213" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>22</v>
       </c>
@@ -7790,8 +7918,11 @@
       <c r="I214" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>22</v>
       </c>
@@ -7819,8 +7950,11 @@
       <c r="I215" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>22</v>
       </c>
@@ -7848,8 +7982,11 @@
       <c r="I216" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>22</v>
       </c>
@@ -7877,8 +8014,11 @@
       <c r="I217" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>22</v>
       </c>
@@ -7906,8 +8046,11 @@
       <c r="I218" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>22</v>
       </c>
@@ -7935,8 +8078,11 @@
       <c r="I219" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>22</v>
       </c>
@@ -7964,8 +8110,11 @@
       <c r="I220" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>22</v>
       </c>
@@ -7993,8 +8142,11 @@
       <c r="I221" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>23</v>
       </c>
@@ -8022,8 +8174,11 @@
       <c r="I222" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>23</v>
       </c>
@@ -8051,8 +8206,11 @@
       <c r="I223" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>23</v>
       </c>
@@ -8080,8 +8238,11 @@
       <c r="I224" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>23</v>
       </c>
@@ -8109,8 +8270,11 @@
       <c r="I225" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>23</v>
       </c>
@@ -8138,8 +8302,11 @@
       <c r="I226" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>23</v>
       </c>
@@ -8167,8 +8334,11 @@
       <c r="I227" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>23</v>
       </c>
@@ -8196,8 +8366,11 @@
       <c r="I228" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>23</v>
       </c>
@@ -8225,8 +8398,11 @@
       <c r="I229" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>23</v>
       </c>
@@ -8254,8 +8430,11 @@
       <c r="I230" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>23</v>
       </c>
@@ -8283,8 +8462,11 @@
       <c r="I231" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>24</v>
       </c>
@@ -8312,8 +8494,11 @@
       <c r="I232" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>24</v>
       </c>
@@ -8341,8 +8526,11 @@
       <c r="I233" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>24</v>
       </c>
@@ -8370,8 +8558,11 @@
       <c r="I234" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>24</v>
       </c>
@@ -8399,8 +8590,11 @@
       <c r="I235" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>24</v>
       </c>
@@ -8428,8 +8622,11 @@
       <c r="I236" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>24</v>
       </c>
@@ -8457,8 +8654,11 @@
       <c r="I237" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>24</v>
       </c>
@@ -8486,8 +8686,11 @@
       <c r="I238" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>24</v>
       </c>
@@ -8515,8 +8718,11 @@
       <c r="I239" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>24</v>
       </c>
@@ -8544,8 +8750,11 @@
       <c r="I240" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>24</v>
       </c>
@@ -8573,8 +8782,11 @@
       <c r="I241" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>25</v>
       </c>
@@ -8602,8 +8814,11 @@
       <c r="I242" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>25</v>
       </c>
@@ -8631,8 +8846,11 @@
       <c r="I243" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>25</v>
       </c>
@@ -8660,8 +8878,11 @@
       <c r="I244" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>25</v>
       </c>
@@ -8689,8 +8910,11 @@
       <c r="I245" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>25</v>
       </c>
@@ -8718,8 +8942,11 @@
       <c r="I246" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>25</v>
       </c>
@@ -8747,8 +8974,11 @@
       <c r="I247" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>25</v>
       </c>
@@ -8776,8 +9006,11 @@
       <c r="I248" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>25</v>
       </c>
@@ -8805,8 +9038,11 @@
       <c r="I249" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>25</v>
       </c>
@@ -8834,8 +9070,11 @@
       <c r="I250" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>25</v>
       </c>
@@ -8863,8 +9102,11 @@
       <c r="I251" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>26</v>
       </c>
@@ -8892,8 +9134,11 @@
       <c r="I252" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>26</v>
       </c>
@@ -8921,8 +9166,11 @@
       <c r="I253" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>26</v>
       </c>
@@ -8950,8 +9198,11 @@
       <c r="I254" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -8979,8 +9230,11 @@
       <c r="I255" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>26</v>
       </c>
@@ -9008,8 +9262,11 @@
       <c r="I256" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>26</v>
       </c>
@@ -9037,8 +9294,11 @@
       <c r="I257" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>26</v>
       </c>
@@ -9066,8 +9326,11 @@
       <c r="I258" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>26</v>
       </c>
@@ -9095,8 +9358,11 @@
       <c r="I259" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>26</v>
       </c>
@@ -9124,8 +9390,11 @@
       <c r="I260" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>26</v>
       </c>
@@ -9153,8 +9422,11 @@
       <c r="I261" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>27</v>
       </c>
@@ -9173,8 +9445,11 @@
       <c r="I262" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>27</v>
       </c>
@@ -9193,8 +9468,11 @@
       <c r="I263" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>27</v>
       </c>
@@ -9213,8 +9491,11 @@
       <c r="I264" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>27</v>
       </c>
@@ -9233,8 +9514,11 @@
       <c r="I265" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>27</v>
       </c>
@@ -9253,8 +9537,11 @@
       <c r="I266" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>27</v>
       </c>
@@ -9273,8 +9560,11 @@
       <c r="I267" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>27</v>
       </c>
@@ -9293,8 +9583,11 @@
       <c r="I268" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>27</v>
       </c>
@@ -9313,8 +9606,11 @@
       <c r="I269" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>27</v>
       </c>
@@ -9333,8 +9629,11 @@
       <c r="I270" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>27</v>
       </c>
@@ -9353,8 +9652,11 @@
       <c r="I271" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>28</v>
       </c>
@@ -9373,8 +9675,11 @@
       <c r="I272" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>28</v>
       </c>
@@ -9393,8 +9698,11 @@
       <c r="I273" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>28</v>
       </c>
@@ -9413,8 +9721,11 @@
       <c r="I274" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>28</v>
       </c>
@@ -9433,8 +9744,11 @@
       <c r="I275" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>28</v>
       </c>
@@ -9453,8 +9767,11 @@
       <c r="I276" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>28</v>
       </c>
@@ -9473,8 +9790,11 @@
       <c r="I277" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>28</v>
       </c>
@@ -9493,8 +9813,11 @@
       <c r="I278" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>28</v>
       </c>
@@ -9513,8 +9836,11 @@
       <c r="I279" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>28</v>
       </c>
@@ -9533,8 +9859,11 @@
       <c r="I280" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>28</v>
       </c>
@@ -9553,8 +9882,11 @@
       <c r="I281" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>29</v>
       </c>
@@ -9571,7 +9903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>29</v>
       </c>
@@ -9588,7 +9920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>29</v>
       </c>
@@ -9605,7 +9937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>29</v>
       </c>
@@ -9622,7 +9954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>29</v>
       </c>
@@ -9639,7 +9971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>29</v>
       </c>
@@ -9656,7 +9988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>29</v>
       </c>
@@ -11252,6 +11584,208 @@
       </c>
       <c r="I381" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB363246-6E47-4254-A83A-CA7E1314CE4A}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A20" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A20+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
